--- a/15.458 DS/458-1/INDU.xlsx
+++ b/15.458 DS/458-1/INDU.xlsx
@@ -1,26 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\msm.mit.edu\dfs\Home\songhao.li\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/grant/Desktop/MIT/2021_fall/15.458 DS/458-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{903AECD8-2D78-034C-A34A-6B46A7FC4448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10395" yWindow="-105" windowWidth="14850" windowHeight="12735" activeTab="1"/>
+    <workbookView xWindow="15440" yWindow="500" windowWidth="15200" windowHeight="16880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="8.24" sheetId="2" r:id="rId1"/>
     <sheet name="8.31" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="71">
   <si>
     <t>Ticker</t>
   </si>
@@ -238,7 +250,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -731,9 +743,10 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="33" borderId="0" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -761,7 +774,7 @@
     <cellStyle name="Accent5" xfId="23" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Accent6" xfId="24" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Bad" xfId="25" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="blp_column_header" xfId="26"/>
+    <cellStyle name="blp_column_header" xfId="26" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
     <cellStyle name="Calculation" xfId="27" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="28" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Explanatory Text" xfId="29" builtinId="53" customBuiltin="1"/>
@@ -869,6 +882,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -904,6 +934,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1079,545 +1126,1142 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="5" width="9.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="2">
+        <v>44067</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="G2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>12.197502999999999</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
         <v>503.43</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="F3">
+        <f>E3*C3</f>
+        <v>6140.5889352899994</v>
+      </c>
+      <c r="G3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="H3" t="s">
         <v>8</v>
       </c>
-      <c r="C3">
+      <c r="I3">
+        <v>7.2332789999999996</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>312.55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
         <v>7.4828219999999996</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
         <v>308.83999999999997</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="F4">
+        <f t="shared" ref="F4:F32" si="0">E4*C4</f>
+        <v>2310.9947464799998</v>
+      </c>
+      <c r="G4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="H4" t="s">
         <v>10</v>
       </c>
-      <c r="C4">
+      <c r="I4">
+        <v>6.5966209999999998</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>285.04000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
         <v>6.9476079999999998</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
         <v>286.75</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>1992.226594</v>
+      </c>
+      <c r="G5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5" t="s">
+        <v>66</v>
+      </c>
+      <c r="I5">
+        <v>6.309882</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>272.64999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>5.1774519999999997</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
         <v>213.69</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>1106.3697178799998</v>
+      </c>
+      <c r="G6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" t="s">
+        <v>68</v>
+      </c>
+      <c r="I6">
+        <v>5.8625319999999999</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>253.32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>5.1515269999999997</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
         <v>212.62</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>1095.31767074</v>
+      </c>
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7">
+        <v>5.2193940000000003</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>225.53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>15</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>16</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>5.0235989999999999</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
         <v>207.34</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>1041.5930166600001</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8">
+        <v>4.9414490000000004</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>213.52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>17</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>18</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>5.0010659999999998</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
         <v>206.41</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>1032.2700330599998</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9">
+        <v>4.90604</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>211.99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>19</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>20</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>4.3192680000000001</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
         <v>178.27</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>769.99590636000005</v>
+      </c>
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10">
+        <v>4.7412640000000001</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>204.87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>21</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>22</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>3.962135</v>
       </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
         <v>163.53</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>647.92793655000003</v>
+      </c>
+      <c r="G11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11">
+        <v>3.976394</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>171.82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>23</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>24</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>3.6864119999999998</v>
       </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
         <v>152.15</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>560.88758580000001</v>
+      </c>
+      <c r="G12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12" t="s">
+        <v>70</v>
+      </c>
+      <c r="I12">
+        <v>3.8312889999999999</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>165.55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>25</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>26</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>3.4327359999999998</v>
       </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
         <v>141.68</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>486.35003647999997</v>
+      </c>
+      <c r="G13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13">
+        <v>3.7727379999999999</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>163.02000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>27</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>28</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>3.355931</v>
       </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
         <v>138.51</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>464.83000281</v>
+      </c>
+      <c r="G14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14">
+        <v>3.5503360000000002</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>153.41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>29</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>30</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <v>3.1819679999999999</v>
       </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
         <v>131.33000000000001</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>417.88785744</v>
+      </c>
+      <c r="G15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15">
+        <v>3.2934510000000001</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>142.31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>31</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>32</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <v>3.1664620000000001</v>
       </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
         <v>130.69</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>413.82491878000002</v>
+      </c>
+      <c r="G16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" t="s">
+        <v>30</v>
+      </c>
+      <c r="I16">
+        <v>3.2133769999999999</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>138.85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>33</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>34</v>
       </c>
-      <c r="C16">
+      <c r="C17">
         <v>3.0450750000000002</v>
       </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
         <v>125.68</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>382.70502600000003</v>
+      </c>
+      <c r="G17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17">
+        <v>3.2013419999999999</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>138.33000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>35</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>36</v>
       </c>
-      <c r="C17">
+      <c r="C18">
         <v>2.7838889999999998</v>
       </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
         <v>114.9</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>319.86884609999998</v>
+      </c>
+      <c r="G18" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" t="s">
+        <v>32</v>
+      </c>
+      <c r="I18">
+        <v>3.0518399999999999</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>131.87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>37</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>38</v>
       </c>
-      <c r="C18">
+      <c r="C19">
         <v>2.7095060000000002</v>
       </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
         <v>111.83</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>303.00405598000003</v>
+      </c>
+      <c r="G19" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" t="s">
+        <v>6</v>
+      </c>
+      <c r="I19">
+        <v>2.9863460000000002</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>129.04</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>39</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>40</v>
       </c>
-      <c r="C19">
+      <c r="C20">
         <v>2.4243329999999998</v>
       </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
         <v>100.06</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>242.57875998</v>
+      </c>
+      <c r="G20" t="s">
+        <v>33</v>
+      </c>
+      <c r="H20" t="s">
+        <v>34</v>
+      </c>
+      <c r="I20">
+        <v>2.8537379999999999</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>123.31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>41</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>42</v>
       </c>
-      <c r="C20">
+      <c r="C21">
         <v>2.4066459999999998</v>
       </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
         <v>99.33</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>239.05214717999999</v>
+      </c>
+      <c r="G21" t="s">
+        <v>35</v>
+      </c>
+      <c r="H21" t="s">
+        <v>36</v>
+      </c>
+      <c r="I21">
+        <v>2.685489</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>116.04</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>43</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>44</v>
       </c>
-      <c r="C21">
+      <c r="C22">
         <v>2.1127509999999998</v>
       </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
         <v>87.2</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>184.23188719999999</v>
+      </c>
+      <c r="G22" t="s">
+        <v>37</v>
+      </c>
+      <c r="H22" t="s">
+        <v>38</v>
+      </c>
+      <c r="I22">
+        <v>2.5894469999999998</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>111.89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>45</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>46</v>
       </c>
-      <c r="C22">
+      <c r="C23">
         <v>2.0696240000000001</v>
       </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22">
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
         <v>85.42</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>176.78728208000001</v>
+      </c>
+      <c r="G23" t="s">
+        <v>41</v>
+      </c>
+      <c r="H23" t="s">
+        <v>42</v>
+      </c>
+      <c r="I23">
+        <v>2.3510759999999999</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>101.59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>47</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>48</v>
       </c>
-      <c r="C23">
+      <c r="C24">
         <v>1.4992780000000001</v>
       </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23">
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
         <v>61.88</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>92.775322640000013</v>
+      </c>
+      <c r="G24" t="s">
+        <v>39</v>
+      </c>
+      <c r="H24" t="s">
+        <v>40</v>
+      </c>
+      <c r="I24">
+        <v>2.318676</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>100.19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>49</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>50</v>
       </c>
-      <c r="C24">
+      <c r="C25">
         <v>1.443309</v>
       </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24">
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
         <v>59.57</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>85.977917129999994</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25">
+        <v>1.9733860000000001</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>85.27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>51</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>52</v>
       </c>
-      <c r="C25">
+      <c r="C26">
         <v>1.1906030000000001</v>
       </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25">
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
         <v>49.14</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>58.506231420000006</v>
+      </c>
+      <c r="G26" t="s">
+        <v>43</v>
+      </c>
+      <c r="H26" t="s">
+        <v>44</v>
+      </c>
+      <c r="I26">
+        <v>1.942374</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>83.93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>53</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>54</v>
       </c>
-      <c r="C26">
+      <c r="C27">
         <v>1.162255</v>
       </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26">
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
         <v>47.97</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>55.753372349999999</v>
+      </c>
+      <c r="G27" t="s">
+        <v>49</v>
+      </c>
+      <c r="H27" t="s">
+        <v>50</v>
+      </c>
+      <c r="I27">
+        <v>1.3716729999999999</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>59.27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>55</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>56</v>
       </c>
-      <c r="C27">
+      <c r="C28">
         <v>1.117432</v>
       </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27">
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
         <v>46.12</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>51.535963839999994</v>
+      </c>
+      <c r="G28" t="s">
+        <v>51</v>
+      </c>
+      <c r="H28" t="s">
+        <v>52</v>
+      </c>
+      <c r="I28">
+        <v>1.179125</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>50.95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>57</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>58</v>
       </c>
-      <c r="C28">
+      <c r="C29">
         <v>1.02294</v>
       </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28">
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
         <v>42.22</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>43.188526799999998</v>
+      </c>
+      <c r="G29" t="s">
+        <v>53</v>
+      </c>
+      <c r="H29" t="s">
+        <v>54</v>
+      </c>
+      <c r="I29">
+        <v>1.1462619999999999</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>49.53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>59</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>60</v>
       </c>
-      <c r="C29">
+      <c r="C30">
         <v>1.021971</v>
       </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29">
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
         <v>42.18</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>43.106736779999999</v>
+      </c>
+      <c r="G30" t="s">
+        <v>55</v>
+      </c>
+      <c r="H30" t="s">
+        <v>56</v>
+      </c>
+      <c r="I30">
+        <v>1.044203</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>45.12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>61</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>62</v>
       </c>
-      <c r="C30">
+      <c r="C31">
         <v>0.96285200000000004</v>
       </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30">
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
         <v>39.74</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>38.263738480000001</v>
+      </c>
+      <c r="G31" t="s">
+        <v>59</v>
+      </c>
+      <c r="H31" t="s">
+        <v>60</v>
+      </c>
+      <c r="I31">
+        <v>0.97708899999999999</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>42.22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>63</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>64</v>
       </c>
-      <c r="C31">
+      <c r="C32">
         <v>0.94104600000000005</v>
       </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31">
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
         <v>38.840000000000003</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>36.550226640000005</v>
+      </c>
+      <c r="G32" t="s">
+        <v>61</v>
+      </c>
+      <c r="H32" t="s">
+        <v>62</v>
+      </c>
+      <c r="I32">
+        <v>0.87988900000000003</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>38.020000000000003</v>
+      </c>
+    </row>
+    <row r="35" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F35">
+        <f>SUM(F3:F32)</f>
+        <v>20834.950998929991</v>
       </c>
     </row>
   </sheetData>
@@ -1626,16 +2270,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.83203125" customWidth="1"/>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
+    <col min="3" max="4" width="12.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1652,7 +2301,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1669,7 +2318,7 @@
         <v>312.55</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1686,7 +2335,7 @@
         <v>285.04000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>65</v>
       </c>
@@ -1703,7 +2352,7 @@
         <v>272.64999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>67</v>
       </c>
@@ -1720,7 +2369,7 @@
         <v>253.32</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1737,7 +2386,7 @@
         <v>225.53</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1754,7 +2403,7 @@
         <v>213.52</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -1771,7 +2420,7 @@
         <v>211.99</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1788,7 +2437,7 @@
         <v>204.87</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -1805,7 +2454,7 @@
         <v>171.82</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -1822,7 +2471,7 @@
         <v>165.55</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1839,7 +2488,7 @@
         <v>163.02000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -1856,7 +2505,7 @@
         <v>153.41</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -1873,7 +2522,7 @@
         <v>142.31</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -1890,7 +2539,7 @@
         <v>138.85</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -1907,7 +2556,7 @@
         <v>138.33000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -1924,7 +2573,7 @@
         <v>131.87</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1941,7 +2590,7 @@
         <v>129.04</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -1958,7 +2607,7 @@
         <v>123.31</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -1975,7 +2624,7 @@
         <v>116.04</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>37</v>
       </c>
@@ -1992,7 +2641,7 @@
         <v>111.89</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -2009,7 +2658,7 @@
         <v>101.59</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>39</v>
       </c>
@@ -2026,7 +2675,7 @@
         <v>100.19</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>45</v>
       </c>
@@ -2043,7 +2692,7 @@
         <v>85.27</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>43</v>
       </c>
@@ -2060,7 +2709,7 @@
         <v>83.93</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>49</v>
       </c>
@@ -2077,7 +2726,7 @@
         <v>59.27</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>51</v>
       </c>
@@ -2094,7 +2743,7 @@
         <v>50.95</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>53</v>
       </c>
@@ -2111,7 +2760,7 @@
         <v>49.53</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>55</v>
       </c>
@@ -2128,7 +2777,7 @@
         <v>45.12</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>59</v>
       </c>
@@ -2145,7 +2794,7 @@
         <v>42.22</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>61</v>
       </c>
